--- a/sample_data/data.xlsx
+++ b/sample_data/data.xlsx
@@ -379,10 +379,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.274904081232831</v>
+        <v>-0.8098930837030099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6365516843639861</v>
+        <v>1.339203730284573</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2817573353728737</v>
+        <v>1.266244991431734</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3193197388935579</v>
+        <v>-1.556022079837154</v>
       </c>
     </row>
   </sheetData>
